--- a/pred_ohlcv/54_21/2019-10-30 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 LTC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1142.73539707</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1089.51059707</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1134.10859707</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1149.60279707</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1146.25279707</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1154.05349707</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1096.45970223</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1087.16860216</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1145.09530216</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1542.44588213</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1442.432054619999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1465.55886031</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1410.97386031</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1410.97386031</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1429.21946031</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1406.72076031</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1406.72076031</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1282.99886031</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1670.746560309999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1670.746560309999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1521.525660309999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1502.143660309999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1435.159060309999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1296.191660309999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1287.419360309999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1626.11686031</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1596.03356031</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1501.16816031</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1501.16816031</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1599.578567509999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1687.286267509999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1665.169267509999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1455.646367509999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1558.974867509999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1558.81166751</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1673.84606751</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1674.38606751</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1590.81786751</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1676.151567509999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1671.42596751</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1732.56776751</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1636.322267509999</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1592.731667509999</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1605.158467509999</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1639.908767509999</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1620.284667509999</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1580.979167509999</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1665.782467509999</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1658.468367509999</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1621.076967509999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1621.076967509999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1502.623667509999</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5977.028827869996</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5988.915327869996</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-5816.764927869996</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-5936.816227869996</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5941.759927869995</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5960.240127869995</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-5938.108527869996</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5936.968527869995</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 LTC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1142.73539707</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1089.51059707</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1134.10859707</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1149.60279707</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1146.25279707</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1154.05349707</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1096.45970223</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1087.16860216</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1145.09530216</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1524.98278213</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1542.44588213</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1442.432054619999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1465.55886031</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1410.97386031</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1429.21946031</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1406.72076031</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1670.746560309999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1521.525660309999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1502.143660309999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1435.159060309999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1596.03356031</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1501.16816031</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1603.474767509999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1599.578567509999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1687.286267509999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1665.169267509999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1455.646367509999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1558.974867509999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1558.874867509999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1595.854667509999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1558.81166751</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1673.84606751</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1674.38606751</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1590.81786751</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1676.151567509999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1671.42596751</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1732.56776751</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1636.322267509999</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1592.731667509999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1605.158467509999</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1639.908767509999</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1620.284667509999</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1580.979167509999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1665.782467509999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1658.468367509999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1621.076967509999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5977.028827869996</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5988.915327869996</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5941.759927869995</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5960.240127869995</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
